--- a/src/main/webapp/import/WildbookStandardFormat_GS_20190503.xlsx
+++ b/src/main/webapp/import/WildbookStandardFormat_GS_20190503.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Data Input" sheetId="1" state="visible" r:id="rId2"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="90">
   <si>
     <t xml:space="preserve">Survey.vessel</t>
   </si>
@@ -320,9 +320,6 @@
     <t xml:space="preserve">can be estimate etc</t>
   </si>
   <si>
-    <t xml:space="preserve">Occurrence.numJuveniles</t>
-  </si>
-  <si>
     <t xml:space="preserve">distance from observer (and input gps coordinates) to animals (optional; only if used by your research methods)</t>
   </si>
   <si>
@@ -559,52 +556,52 @@
   </sheetPr>
   <dimension ref="A1:AU1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AS1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AS1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="AU1" activeCellId="0" sqref="AU1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="9.74898785425101"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="32.4574898785425"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="26.7813765182186"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="28.4939271255061"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="27.2064777327935"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="16.9230769230769"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="15.3198380566802"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="17.4615384615385"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="14.6761133603239"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="15.5303643724696"/>
-    <col collapsed="false" hidden="false" max="15" min="14" style="1" width="33.1012145748988"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="34.5991902834008"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="35.1336032388664"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="30.3157894736842"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="23.0323886639676"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="24" min="22" style="1" width="23.1376518218623"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="20.7813765182186"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="20.5668016194332"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="19.8178137651822"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="14.4615384615385"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="17.1376518218624"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="25.2793522267206"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="30.1012145748988"/>
-    <col collapsed="false" hidden="false" max="38" min="34" style="1" width="23.5668016194332"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="1" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="40" min="40" style="1" width="27.4210526315789"/>
-    <col collapsed="false" hidden="false" max="41" min="41" style="1" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="42" min="42" style="1" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="43" min="43" style="1" width="24.1012145748988"/>
-    <col collapsed="false" hidden="false" max="44" min="44" style="1" width="39.6356275303644"/>
-    <col collapsed="false" hidden="false" max="45" min="45" style="1" width="33.2064777327935"/>
-    <col collapsed="false" hidden="false" max="46" min="46" style="1" width="16.1740890688259"/>
-    <col collapsed="false" hidden="false" max="47" min="47" style="1" width="26.9028340080972"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="9.85425101214575"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="32.6720647773279"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="26.995951417004"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="28.7085020242915"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="27.4210526315789"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="17.0323886639676"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="17.5668016194332"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="14.7813765182186"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="15" min="14" style="1" width="33.4210526315789"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="34.8137651821862"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="35.3481781376518"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="30.5303643724696"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="24" min="22" style="1" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="14.5668016194332"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="17.246963562753"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="30.3157894736842"/>
+    <col collapsed="false" hidden="false" max="38" min="34" style="1" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="1" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="40" min="40" style="1" width="27.6356275303644"/>
+    <col collapsed="false" hidden="false" max="41" min="41" style="1" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="42" min="42" style="1" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="43" min="43" style="1" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="44" min="44" style="1" width="39.9554655870445"/>
+    <col collapsed="false" hidden="false" max="45" min="45" style="1" width="33.5263157894737"/>
+    <col collapsed="false" hidden="false" max="46" min="46" style="1" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="47" min="47" style="1" width="27.1012145748988"/>
     <col collapsed="false" hidden="false" max="253" min="48" style="1" width="8.1417004048583"/>
     <col collapsed="false" hidden="false" max="1000" min="254" style="2" width="8.1417004048583"/>
     <col collapsed="false" hidden="false" max="1025" min="1001" style="0" width="8.1417004048583"/>
@@ -769,16 +766,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:56"/>
+  <dimension ref="1:58"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A52" activeCellId="0" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="3" width="39.6356275303644"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="85.587044534413"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="3" width="39.9554655870445"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="86.336032388664"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="2" width="8.1417004048583"/>
   </cols>
   <sheetData>
@@ -44012,6 +44009,1032 @@
       <c r="AMI42" s="0"/>
       <c r="AMJ42" s="0"/>
     </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0"/>
+      <c r="B43" s="0"/>
+      <c r="C43" s="0"/>
+      <c r="D43" s="0"/>
+      <c r="E43" s="0"/>
+      <c r="F43" s="0"/>
+      <c r="G43" s="0"/>
+      <c r="H43" s="0"/>
+      <c r="I43" s="0"/>
+      <c r="J43" s="0"/>
+      <c r="K43" s="0"/>
+      <c r="L43" s="0"/>
+      <c r="M43" s="0"/>
+      <c r="N43" s="0"/>
+      <c r="O43" s="0"/>
+      <c r="P43" s="0"/>
+      <c r="Q43" s="0"/>
+      <c r="R43" s="0"/>
+      <c r="S43" s="0"/>
+      <c r="T43" s="0"/>
+      <c r="U43" s="0"/>
+      <c r="V43" s="0"/>
+      <c r="W43" s="0"/>
+      <c r="X43" s="0"/>
+      <c r="Y43" s="0"/>
+      <c r="Z43" s="0"/>
+      <c r="AA43" s="0"/>
+      <c r="AB43" s="0"/>
+      <c r="AC43" s="0"/>
+      <c r="AD43" s="0"/>
+      <c r="AE43" s="0"/>
+      <c r="AF43" s="0"/>
+      <c r="AG43" s="0"/>
+      <c r="AH43" s="0"/>
+      <c r="AI43" s="0"/>
+      <c r="AJ43" s="0"/>
+      <c r="AK43" s="0"/>
+      <c r="AL43" s="0"/>
+      <c r="AM43" s="0"/>
+      <c r="AN43" s="0"/>
+      <c r="AO43" s="0"/>
+      <c r="AP43" s="0"/>
+      <c r="AQ43" s="0"/>
+      <c r="AR43" s="0"/>
+      <c r="AS43" s="0"/>
+      <c r="AT43" s="0"/>
+      <c r="AU43" s="0"/>
+      <c r="AV43" s="0"/>
+      <c r="AW43" s="0"/>
+      <c r="AX43" s="0"/>
+      <c r="AY43" s="0"/>
+      <c r="AZ43" s="0"/>
+      <c r="BA43" s="0"/>
+      <c r="BB43" s="0"/>
+      <c r="BC43" s="0"/>
+      <c r="BD43" s="0"/>
+      <c r="BE43" s="0"/>
+      <c r="BF43" s="0"/>
+      <c r="BG43" s="0"/>
+      <c r="BH43" s="0"/>
+      <c r="BI43" s="0"/>
+      <c r="BJ43" s="0"/>
+      <c r="BK43" s="0"/>
+      <c r="BL43" s="0"/>
+      <c r="BM43" s="0"/>
+      <c r="BN43" s="0"/>
+      <c r="BO43" s="0"/>
+      <c r="BP43" s="0"/>
+      <c r="BQ43" s="0"/>
+      <c r="BR43" s="0"/>
+      <c r="BS43" s="0"/>
+      <c r="BT43" s="0"/>
+      <c r="BU43" s="0"/>
+      <c r="BV43" s="0"/>
+      <c r="BW43" s="0"/>
+      <c r="BX43" s="0"/>
+      <c r="BY43" s="0"/>
+      <c r="BZ43" s="0"/>
+      <c r="CA43" s="0"/>
+      <c r="CB43" s="0"/>
+      <c r="CC43" s="0"/>
+      <c r="CD43" s="0"/>
+      <c r="CE43" s="0"/>
+      <c r="CF43" s="0"/>
+      <c r="CG43" s="0"/>
+      <c r="CH43" s="0"/>
+      <c r="CI43" s="0"/>
+      <c r="CJ43" s="0"/>
+      <c r="CK43" s="0"/>
+      <c r="CL43" s="0"/>
+      <c r="CM43" s="0"/>
+      <c r="CN43" s="0"/>
+      <c r="CO43" s="0"/>
+      <c r="CP43" s="0"/>
+      <c r="CQ43" s="0"/>
+      <c r="CR43" s="0"/>
+      <c r="CS43" s="0"/>
+      <c r="CT43" s="0"/>
+      <c r="CU43" s="0"/>
+      <c r="CV43" s="0"/>
+      <c r="CW43" s="0"/>
+      <c r="CX43" s="0"/>
+      <c r="CY43" s="0"/>
+      <c r="CZ43" s="0"/>
+      <c r="DA43" s="0"/>
+      <c r="DB43" s="0"/>
+      <c r="DC43" s="0"/>
+      <c r="DD43" s="0"/>
+      <c r="DE43" s="0"/>
+      <c r="DF43" s="0"/>
+      <c r="DG43" s="0"/>
+      <c r="DH43" s="0"/>
+      <c r="DI43" s="0"/>
+      <c r="DJ43" s="0"/>
+      <c r="DK43" s="0"/>
+      <c r="DL43" s="0"/>
+      <c r="DM43" s="0"/>
+      <c r="DN43" s="0"/>
+      <c r="DO43" s="0"/>
+      <c r="DP43" s="0"/>
+      <c r="DQ43" s="0"/>
+      <c r="DR43" s="0"/>
+      <c r="DS43" s="0"/>
+      <c r="DT43" s="0"/>
+      <c r="DU43" s="0"/>
+      <c r="DV43" s="0"/>
+      <c r="DW43" s="0"/>
+      <c r="DX43" s="0"/>
+      <c r="DY43" s="0"/>
+      <c r="DZ43" s="0"/>
+      <c r="EA43" s="0"/>
+      <c r="EB43" s="0"/>
+      <c r="EC43" s="0"/>
+      <c r="ED43" s="0"/>
+      <c r="EE43" s="0"/>
+      <c r="EF43" s="0"/>
+      <c r="EG43" s="0"/>
+      <c r="EH43" s="0"/>
+      <c r="EI43" s="0"/>
+      <c r="EJ43" s="0"/>
+      <c r="EK43" s="0"/>
+      <c r="EL43" s="0"/>
+      <c r="EM43" s="0"/>
+      <c r="EN43" s="0"/>
+      <c r="EO43" s="0"/>
+      <c r="EP43" s="0"/>
+      <c r="EQ43" s="0"/>
+      <c r="ER43" s="0"/>
+      <c r="ES43" s="0"/>
+      <c r="ET43" s="0"/>
+      <c r="EU43" s="0"/>
+      <c r="EV43" s="0"/>
+      <c r="EW43" s="0"/>
+      <c r="EX43" s="0"/>
+      <c r="EY43" s="0"/>
+      <c r="EZ43" s="0"/>
+      <c r="FA43" s="0"/>
+      <c r="FB43" s="0"/>
+      <c r="FC43" s="0"/>
+      <c r="FD43" s="0"/>
+      <c r="FE43" s="0"/>
+      <c r="FF43" s="0"/>
+      <c r="FG43" s="0"/>
+      <c r="FH43" s="0"/>
+      <c r="FI43" s="0"/>
+      <c r="FJ43" s="0"/>
+      <c r="FK43" s="0"/>
+      <c r="FL43" s="0"/>
+      <c r="FM43" s="0"/>
+      <c r="FN43" s="0"/>
+      <c r="FO43" s="0"/>
+      <c r="FP43" s="0"/>
+      <c r="FQ43" s="0"/>
+      <c r="FR43" s="0"/>
+      <c r="FS43" s="0"/>
+      <c r="FT43" s="0"/>
+      <c r="FU43" s="0"/>
+      <c r="FV43" s="0"/>
+      <c r="FW43" s="0"/>
+      <c r="FX43" s="0"/>
+      <c r="FY43" s="0"/>
+      <c r="FZ43" s="0"/>
+      <c r="GA43" s="0"/>
+      <c r="GB43" s="0"/>
+      <c r="GC43" s="0"/>
+      <c r="GD43" s="0"/>
+      <c r="GE43" s="0"/>
+      <c r="GF43" s="0"/>
+      <c r="GG43" s="0"/>
+      <c r="GH43" s="0"/>
+      <c r="GI43" s="0"/>
+      <c r="GJ43" s="0"/>
+      <c r="GK43" s="0"/>
+      <c r="GL43" s="0"/>
+      <c r="GM43" s="0"/>
+      <c r="GN43" s="0"/>
+      <c r="GO43" s="0"/>
+      <c r="GP43" s="0"/>
+      <c r="GQ43" s="0"/>
+      <c r="GR43" s="0"/>
+      <c r="GS43" s="0"/>
+      <c r="GT43" s="0"/>
+      <c r="GU43" s="0"/>
+      <c r="GV43" s="0"/>
+      <c r="GW43" s="0"/>
+      <c r="GX43" s="0"/>
+      <c r="GY43" s="0"/>
+      <c r="GZ43" s="0"/>
+      <c r="HA43" s="0"/>
+      <c r="HB43" s="0"/>
+      <c r="HC43" s="0"/>
+      <c r="HD43" s="0"/>
+      <c r="HE43" s="0"/>
+      <c r="HF43" s="0"/>
+      <c r="HG43" s="0"/>
+      <c r="HH43" s="0"/>
+      <c r="HI43" s="0"/>
+      <c r="HJ43" s="0"/>
+      <c r="HK43" s="0"/>
+      <c r="HL43" s="0"/>
+      <c r="HM43" s="0"/>
+      <c r="HN43" s="0"/>
+      <c r="HO43" s="0"/>
+      <c r="HP43" s="0"/>
+      <c r="HQ43" s="0"/>
+      <c r="HR43" s="0"/>
+      <c r="HS43" s="0"/>
+      <c r="HT43" s="0"/>
+      <c r="HU43" s="0"/>
+      <c r="HV43" s="0"/>
+      <c r="HW43" s="0"/>
+      <c r="HX43" s="0"/>
+      <c r="HY43" s="0"/>
+      <c r="HZ43" s="0"/>
+      <c r="IA43" s="0"/>
+      <c r="IB43" s="0"/>
+      <c r="IC43" s="0"/>
+      <c r="ID43" s="0"/>
+      <c r="IE43" s="0"/>
+      <c r="IF43" s="0"/>
+      <c r="IG43" s="0"/>
+      <c r="IH43" s="0"/>
+      <c r="II43" s="0"/>
+      <c r="IJ43" s="0"/>
+      <c r="IK43" s="0"/>
+      <c r="IL43" s="0"/>
+      <c r="IM43" s="0"/>
+      <c r="IN43" s="0"/>
+      <c r="IO43" s="0"/>
+      <c r="IP43" s="0"/>
+      <c r="IQ43" s="0"/>
+      <c r="IR43" s="0"/>
+      <c r="IS43" s="0"/>
+      <c r="IT43" s="0"/>
+      <c r="IU43" s="0"/>
+      <c r="IV43" s="0"/>
+      <c r="IW43" s="0"/>
+      <c r="IX43" s="0"/>
+      <c r="IY43" s="0"/>
+      <c r="IZ43" s="0"/>
+      <c r="JA43" s="0"/>
+      <c r="JB43" s="0"/>
+      <c r="JC43" s="0"/>
+      <c r="JD43" s="0"/>
+      <c r="JE43" s="0"/>
+      <c r="JF43" s="0"/>
+      <c r="JG43" s="0"/>
+      <c r="JH43" s="0"/>
+      <c r="JI43" s="0"/>
+      <c r="JJ43" s="0"/>
+      <c r="JK43" s="0"/>
+      <c r="JL43" s="0"/>
+      <c r="JM43" s="0"/>
+      <c r="JN43" s="0"/>
+      <c r="JO43" s="0"/>
+      <c r="JP43" s="0"/>
+      <c r="JQ43" s="0"/>
+      <c r="JR43" s="0"/>
+      <c r="JS43" s="0"/>
+      <c r="JT43" s="0"/>
+      <c r="JU43" s="0"/>
+      <c r="JV43" s="0"/>
+      <c r="JW43" s="0"/>
+      <c r="JX43" s="0"/>
+      <c r="JY43" s="0"/>
+      <c r="JZ43" s="0"/>
+      <c r="KA43" s="0"/>
+      <c r="KB43" s="0"/>
+      <c r="KC43" s="0"/>
+      <c r="KD43" s="0"/>
+      <c r="KE43" s="0"/>
+      <c r="KF43" s="0"/>
+      <c r="KG43" s="0"/>
+      <c r="KH43" s="0"/>
+      <c r="KI43" s="0"/>
+      <c r="KJ43" s="0"/>
+      <c r="KK43" s="0"/>
+      <c r="KL43" s="0"/>
+      <c r="KM43" s="0"/>
+      <c r="KN43" s="0"/>
+      <c r="KO43" s="0"/>
+      <c r="KP43" s="0"/>
+      <c r="KQ43" s="0"/>
+      <c r="KR43" s="0"/>
+      <c r="KS43" s="0"/>
+      <c r="KT43" s="0"/>
+      <c r="KU43" s="0"/>
+      <c r="KV43" s="0"/>
+      <c r="KW43" s="0"/>
+      <c r="KX43" s="0"/>
+      <c r="KY43" s="0"/>
+      <c r="KZ43" s="0"/>
+      <c r="LA43" s="0"/>
+      <c r="LB43" s="0"/>
+      <c r="LC43" s="0"/>
+      <c r="LD43" s="0"/>
+      <c r="LE43" s="0"/>
+      <c r="LF43" s="0"/>
+      <c r="LG43" s="0"/>
+      <c r="LH43" s="0"/>
+      <c r="LI43" s="0"/>
+      <c r="LJ43" s="0"/>
+      <c r="LK43" s="0"/>
+      <c r="LL43" s="0"/>
+      <c r="LM43" s="0"/>
+      <c r="LN43" s="0"/>
+      <c r="LO43" s="0"/>
+      <c r="LP43" s="0"/>
+      <c r="LQ43" s="0"/>
+      <c r="LR43" s="0"/>
+      <c r="LS43" s="0"/>
+      <c r="LT43" s="0"/>
+      <c r="LU43" s="0"/>
+      <c r="LV43" s="0"/>
+      <c r="LW43" s="0"/>
+      <c r="LX43" s="0"/>
+      <c r="LY43" s="0"/>
+      <c r="LZ43" s="0"/>
+      <c r="MA43" s="0"/>
+      <c r="MB43" s="0"/>
+      <c r="MC43" s="0"/>
+      <c r="MD43" s="0"/>
+      <c r="ME43" s="0"/>
+      <c r="MF43" s="0"/>
+      <c r="MG43" s="0"/>
+      <c r="MH43" s="0"/>
+      <c r="MI43" s="0"/>
+      <c r="MJ43" s="0"/>
+      <c r="MK43" s="0"/>
+      <c r="ML43" s="0"/>
+      <c r="MM43" s="0"/>
+      <c r="MN43" s="0"/>
+      <c r="MO43" s="0"/>
+      <c r="MP43" s="0"/>
+      <c r="MQ43" s="0"/>
+      <c r="MR43" s="0"/>
+      <c r="MS43" s="0"/>
+      <c r="MT43" s="0"/>
+      <c r="MU43" s="0"/>
+      <c r="MV43" s="0"/>
+      <c r="MW43" s="0"/>
+      <c r="MX43" s="0"/>
+      <c r="MY43" s="0"/>
+      <c r="MZ43" s="0"/>
+      <c r="NA43" s="0"/>
+      <c r="NB43" s="0"/>
+      <c r="NC43" s="0"/>
+      <c r="ND43" s="0"/>
+      <c r="NE43" s="0"/>
+      <c r="NF43" s="0"/>
+      <c r="NG43" s="0"/>
+      <c r="NH43" s="0"/>
+      <c r="NI43" s="0"/>
+      <c r="NJ43" s="0"/>
+      <c r="NK43" s="0"/>
+      <c r="NL43" s="0"/>
+      <c r="NM43" s="0"/>
+      <c r="NN43" s="0"/>
+      <c r="NO43" s="0"/>
+      <c r="NP43" s="0"/>
+      <c r="NQ43" s="0"/>
+      <c r="NR43" s="0"/>
+      <c r="NS43" s="0"/>
+      <c r="NT43" s="0"/>
+      <c r="NU43" s="0"/>
+      <c r="NV43" s="0"/>
+      <c r="NW43" s="0"/>
+      <c r="NX43" s="0"/>
+      <c r="NY43" s="0"/>
+      <c r="NZ43" s="0"/>
+      <c r="OA43" s="0"/>
+      <c r="OB43" s="0"/>
+      <c r="OC43" s="0"/>
+      <c r="OD43" s="0"/>
+      <c r="OE43" s="0"/>
+      <c r="OF43" s="0"/>
+      <c r="OG43" s="0"/>
+      <c r="OH43" s="0"/>
+      <c r="OI43" s="0"/>
+      <c r="OJ43" s="0"/>
+      <c r="OK43" s="0"/>
+      <c r="OL43" s="0"/>
+      <c r="OM43" s="0"/>
+      <c r="ON43" s="0"/>
+      <c r="OO43" s="0"/>
+      <c r="OP43" s="0"/>
+      <c r="OQ43" s="0"/>
+      <c r="OR43" s="0"/>
+      <c r="OS43" s="0"/>
+      <c r="OT43" s="0"/>
+      <c r="OU43" s="0"/>
+      <c r="OV43" s="0"/>
+      <c r="OW43" s="0"/>
+      <c r="OX43" s="0"/>
+      <c r="OY43" s="0"/>
+      <c r="OZ43" s="0"/>
+      <c r="PA43" s="0"/>
+      <c r="PB43" s="0"/>
+      <c r="PC43" s="0"/>
+      <c r="PD43" s="0"/>
+      <c r="PE43" s="0"/>
+      <c r="PF43" s="0"/>
+      <c r="PG43" s="0"/>
+      <c r="PH43" s="0"/>
+      <c r="PI43" s="0"/>
+      <c r="PJ43" s="0"/>
+      <c r="PK43" s="0"/>
+      <c r="PL43" s="0"/>
+      <c r="PM43" s="0"/>
+      <c r="PN43" s="0"/>
+      <c r="PO43" s="0"/>
+      <c r="PP43" s="0"/>
+      <c r="PQ43" s="0"/>
+      <c r="PR43" s="0"/>
+      <c r="PS43" s="0"/>
+      <c r="PT43" s="0"/>
+      <c r="PU43" s="0"/>
+      <c r="PV43" s="0"/>
+      <c r="PW43" s="0"/>
+      <c r="PX43" s="0"/>
+      <c r="PY43" s="0"/>
+      <c r="PZ43" s="0"/>
+      <c r="QA43" s="0"/>
+      <c r="QB43" s="0"/>
+      <c r="QC43" s="0"/>
+      <c r="QD43" s="0"/>
+      <c r="QE43" s="0"/>
+      <c r="QF43" s="0"/>
+      <c r="QG43" s="0"/>
+      <c r="QH43" s="0"/>
+      <c r="QI43" s="0"/>
+      <c r="QJ43" s="0"/>
+      <c r="QK43" s="0"/>
+      <c r="QL43" s="0"/>
+      <c r="QM43" s="0"/>
+      <c r="QN43" s="0"/>
+      <c r="QO43" s="0"/>
+      <c r="QP43" s="0"/>
+      <c r="QQ43" s="0"/>
+      <c r="QR43" s="0"/>
+      <c r="QS43" s="0"/>
+      <c r="QT43" s="0"/>
+      <c r="QU43" s="0"/>
+      <c r="QV43" s="0"/>
+      <c r="QW43" s="0"/>
+      <c r="QX43" s="0"/>
+      <c r="QY43" s="0"/>
+      <c r="QZ43" s="0"/>
+      <c r="RA43" s="0"/>
+      <c r="RB43" s="0"/>
+      <c r="RC43" s="0"/>
+      <c r="RD43" s="0"/>
+      <c r="RE43" s="0"/>
+      <c r="RF43" s="0"/>
+      <c r="RG43" s="0"/>
+      <c r="RH43" s="0"/>
+      <c r="RI43" s="0"/>
+      <c r="RJ43" s="0"/>
+      <c r="RK43" s="0"/>
+      <c r="RL43" s="0"/>
+      <c r="RM43" s="0"/>
+      <c r="RN43" s="0"/>
+      <c r="RO43" s="0"/>
+      <c r="RP43" s="0"/>
+      <c r="RQ43" s="0"/>
+      <c r="RR43" s="0"/>
+      <c r="RS43" s="0"/>
+      <c r="RT43" s="0"/>
+      <c r="RU43" s="0"/>
+      <c r="RV43" s="0"/>
+      <c r="RW43" s="0"/>
+      <c r="RX43" s="0"/>
+      <c r="RY43" s="0"/>
+      <c r="RZ43" s="0"/>
+      <c r="SA43" s="0"/>
+      <c r="SB43" s="0"/>
+      <c r="SC43" s="0"/>
+      <c r="SD43" s="0"/>
+      <c r="SE43" s="0"/>
+      <c r="SF43" s="0"/>
+      <c r="SG43" s="0"/>
+      <c r="SH43" s="0"/>
+      <c r="SI43" s="0"/>
+      <c r="SJ43" s="0"/>
+      <c r="SK43" s="0"/>
+      <c r="SL43" s="0"/>
+      <c r="SM43" s="0"/>
+      <c r="SN43" s="0"/>
+      <c r="SO43" s="0"/>
+      <c r="SP43" s="0"/>
+      <c r="SQ43" s="0"/>
+      <c r="SR43" s="0"/>
+      <c r="SS43" s="0"/>
+      <c r="ST43" s="0"/>
+      <c r="SU43" s="0"/>
+      <c r="SV43" s="0"/>
+      <c r="SW43" s="0"/>
+      <c r="SX43" s="0"/>
+      <c r="SY43" s="0"/>
+      <c r="SZ43" s="0"/>
+      <c r="TA43" s="0"/>
+      <c r="TB43" s="0"/>
+      <c r="TC43" s="0"/>
+      <c r="TD43" s="0"/>
+      <c r="TE43" s="0"/>
+      <c r="TF43" s="0"/>
+      <c r="TG43" s="0"/>
+      <c r="TH43" s="0"/>
+      <c r="TI43" s="0"/>
+      <c r="TJ43" s="0"/>
+      <c r="TK43" s="0"/>
+      <c r="TL43" s="0"/>
+      <c r="TM43" s="0"/>
+      <c r="TN43" s="0"/>
+      <c r="TO43" s="0"/>
+      <c r="TP43" s="0"/>
+      <c r="TQ43" s="0"/>
+      <c r="TR43" s="0"/>
+      <c r="TS43" s="0"/>
+      <c r="TT43" s="0"/>
+      <c r="TU43" s="0"/>
+      <c r="TV43" s="0"/>
+      <c r="TW43" s="0"/>
+      <c r="TX43" s="0"/>
+      <c r="TY43" s="0"/>
+      <c r="TZ43" s="0"/>
+      <c r="UA43" s="0"/>
+      <c r="UB43" s="0"/>
+      <c r="UC43" s="0"/>
+      <c r="UD43" s="0"/>
+      <c r="UE43" s="0"/>
+      <c r="UF43" s="0"/>
+      <c r="UG43" s="0"/>
+      <c r="UH43" s="0"/>
+      <c r="UI43" s="0"/>
+      <c r="UJ43" s="0"/>
+      <c r="UK43" s="0"/>
+      <c r="UL43" s="0"/>
+      <c r="UM43" s="0"/>
+      <c r="UN43" s="0"/>
+      <c r="UO43" s="0"/>
+      <c r="UP43" s="0"/>
+      <c r="UQ43" s="0"/>
+      <c r="UR43" s="0"/>
+      <c r="US43" s="0"/>
+      <c r="UT43" s="0"/>
+      <c r="UU43" s="0"/>
+      <c r="UV43" s="0"/>
+      <c r="UW43" s="0"/>
+      <c r="UX43" s="0"/>
+      <c r="UY43" s="0"/>
+      <c r="UZ43" s="0"/>
+      <c r="VA43" s="0"/>
+      <c r="VB43" s="0"/>
+      <c r="VC43" s="0"/>
+      <c r="VD43" s="0"/>
+      <c r="VE43" s="0"/>
+      <c r="VF43" s="0"/>
+      <c r="VG43" s="0"/>
+      <c r="VH43" s="0"/>
+      <c r="VI43" s="0"/>
+      <c r="VJ43" s="0"/>
+      <c r="VK43" s="0"/>
+      <c r="VL43" s="0"/>
+      <c r="VM43" s="0"/>
+      <c r="VN43" s="0"/>
+      <c r="VO43" s="0"/>
+      <c r="VP43" s="0"/>
+      <c r="VQ43" s="0"/>
+      <c r="VR43" s="0"/>
+      <c r="VS43" s="0"/>
+      <c r="VT43" s="0"/>
+      <c r="VU43" s="0"/>
+      <c r="VV43" s="0"/>
+      <c r="VW43" s="0"/>
+      <c r="VX43" s="0"/>
+      <c r="VY43" s="0"/>
+      <c r="VZ43" s="0"/>
+      <c r="WA43" s="0"/>
+      <c r="WB43" s="0"/>
+      <c r="WC43" s="0"/>
+      <c r="WD43" s="0"/>
+      <c r="WE43" s="0"/>
+      <c r="WF43" s="0"/>
+      <c r="WG43" s="0"/>
+      <c r="WH43" s="0"/>
+      <c r="WI43" s="0"/>
+      <c r="WJ43" s="0"/>
+      <c r="WK43" s="0"/>
+      <c r="WL43" s="0"/>
+      <c r="WM43" s="0"/>
+      <c r="WN43" s="0"/>
+      <c r="WO43" s="0"/>
+      <c r="WP43" s="0"/>
+      <c r="WQ43" s="0"/>
+      <c r="WR43" s="0"/>
+      <c r="WS43" s="0"/>
+      <c r="WT43" s="0"/>
+      <c r="WU43" s="0"/>
+      <c r="WV43" s="0"/>
+      <c r="WW43" s="0"/>
+      <c r="WX43" s="0"/>
+      <c r="WY43" s="0"/>
+      <c r="WZ43" s="0"/>
+      <c r="XA43" s="0"/>
+      <c r="XB43" s="0"/>
+      <c r="XC43" s="0"/>
+      <c r="XD43" s="0"/>
+      <c r="XE43" s="0"/>
+      <c r="XF43" s="0"/>
+      <c r="XG43" s="0"/>
+      <c r="XH43" s="0"/>
+      <c r="XI43" s="0"/>
+      <c r="XJ43" s="0"/>
+      <c r="XK43" s="0"/>
+      <c r="XL43" s="0"/>
+      <c r="XM43" s="0"/>
+      <c r="XN43" s="0"/>
+      <c r="XO43" s="0"/>
+      <c r="XP43" s="0"/>
+      <c r="XQ43" s="0"/>
+      <c r="XR43" s="0"/>
+      <c r="XS43" s="0"/>
+      <c r="XT43" s="0"/>
+      <c r="XU43" s="0"/>
+      <c r="XV43" s="0"/>
+      <c r="XW43" s="0"/>
+      <c r="XX43" s="0"/>
+      <c r="XY43" s="0"/>
+      <c r="XZ43" s="0"/>
+      <c r="YA43" s="0"/>
+      <c r="YB43" s="0"/>
+      <c r="YC43" s="0"/>
+      <c r="YD43" s="0"/>
+      <c r="YE43" s="0"/>
+      <c r="YF43" s="0"/>
+      <c r="YG43" s="0"/>
+      <c r="YH43" s="0"/>
+      <c r="YI43" s="0"/>
+      <c r="YJ43" s="0"/>
+      <c r="YK43" s="0"/>
+      <c r="YL43" s="0"/>
+      <c r="YM43" s="0"/>
+      <c r="YN43" s="0"/>
+      <c r="YO43" s="0"/>
+      <c r="YP43" s="0"/>
+      <c r="YQ43" s="0"/>
+      <c r="YR43" s="0"/>
+      <c r="YS43" s="0"/>
+      <c r="YT43" s="0"/>
+      <c r="YU43" s="0"/>
+      <c r="YV43" s="0"/>
+      <c r="YW43" s="0"/>
+      <c r="YX43" s="0"/>
+      <c r="YY43" s="0"/>
+      <c r="YZ43" s="0"/>
+      <c r="ZA43" s="0"/>
+      <c r="ZB43" s="0"/>
+      <c r="ZC43" s="0"/>
+      <c r="ZD43" s="0"/>
+      <c r="ZE43" s="0"/>
+      <c r="ZF43" s="0"/>
+      <c r="ZG43" s="0"/>
+      <c r="ZH43" s="0"/>
+      <c r="ZI43" s="0"/>
+      <c r="ZJ43" s="0"/>
+      <c r="ZK43" s="0"/>
+      <c r="ZL43" s="0"/>
+      <c r="ZM43" s="0"/>
+      <c r="ZN43" s="0"/>
+      <c r="ZO43" s="0"/>
+      <c r="ZP43" s="0"/>
+      <c r="ZQ43" s="0"/>
+      <c r="ZR43" s="0"/>
+      <c r="ZS43" s="0"/>
+      <c r="ZT43" s="0"/>
+      <c r="ZU43" s="0"/>
+      <c r="ZV43" s="0"/>
+      <c r="ZW43" s="0"/>
+      <c r="ZX43" s="0"/>
+      <c r="ZY43" s="0"/>
+      <c r="ZZ43" s="0"/>
+      <c r="AAA43" s="0"/>
+      <c r="AAB43" s="0"/>
+      <c r="AAC43" s="0"/>
+      <c r="AAD43" s="0"/>
+      <c r="AAE43" s="0"/>
+      <c r="AAF43" s="0"/>
+      <c r="AAG43" s="0"/>
+      <c r="AAH43" s="0"/>
+      <c r="AAI43" s="0"/>
+      <c r="AAJ43" s="0"/>
+      <c r="AAK43" s="0"/>
+      <c r="AAL43" s="0"/>
+      <c r="AAM43" s="0"/>
+      <c r="AAN43" s="0"/>
+      <c r="AAO43" s="0"/>
+      <c r="AAP43" s="0"/>
+      <c r="AAQ43" s="0"/>
+      <c r="AAR43" s="0"/>
+      <c r="AAS43" s="0"/>
+      <c r="AAT43" s="0"/>
+      <c r="AAU43" s="0"/>
+      <c r="AAV43" s="0"/>
+      <c r="AAW43" s="0"/>
+      <c r="AAX43" s="0"/>
+      <c r="AAY43" s="0"/>
+      <c r="AAZ43" s="0"/>
+      <c r="ABA43" s="0"/>
+      <c r="ABB43" s="0"/>
+      <c r="ABC43" s="0"/>
+      <c r="ABD43" s="0"/>
+      <c r="ABE43" s="0"/>
+      <c r="ABF43" s="0"/>
+      <c r="ABG43" s="0"/>
+      <c r="ABH43" s="0"/>
+      <c r="ABI43" s="0"/>
+      <c r="ABJ43" s="0"/>
+      <c r="ABK43" s="0"/>
+      <c r="ABL43" s="0"/>
+      <c r="ABM43" s="0"/>
+      <c r="ABN43" s="0"/>
+      <c r="ABO43" s="0"/>
+      <c r="ABP43" s="0"/>
+      <c r="ABQ43" s="0"/>
+      <c r="ABR43" s="0"/>
+      <c r="ABS43" s="0"/>
+      <c r="ABT43" s="0"/>
+      <c r="ABU43" s="0"/>
+      <c r="ABV43" s="0"/>
+      <c r="ABW43" s="0"/>
+      <c r="ABX43" s="0"/>
+      <c r="ABY43" s="0"/>
+      <c r="ABZ43" s="0"/>
+      <c r="ACA43" s="0"/>
+      <c r="ACB43" s="0"/>
+      <c r="ACC43" s="0"/>
+      <c r="ACD43" s="0"/>
+      <c r="ACE43" s="0"/>
+      <c r="ACF43" s="0"/>
+      <c r="ACG43" s="0"/>
+      <c r="ACH43" s="0"/>
+      <c r="ACI43" s="0"/>
+      <c r="ACJ43" s="0"/>
+      <c r="ACK43" s="0"/>
+      <c r="ACL43" s="0"/>
+      <c r="ACM43" s="0"/>
+      <c r="ACN43" s="0"/>
+      <c r="ACO43" s="0"/>
+      <c r="ACP43" s="0"/>
+      <c r="ACQ43" s="0"/>
+      <c r="ACR43" s="0"/>
+      <c r="ACS43" s="0"/>
+      <c r="ACT43" s="0"/>
+      <c r="ACU43" s="0"/>
+      <c r="ACV43" s="0"/>
+      <c r="ACW43" s="0"/>
+      <c r="ACX43" s="0"/>
+      <c r="ACY43" s="0"/>
+      <c r="ACZ43" s="0"/>
+      <c r="ADA43" s="0"/>
+      <c r="ADB43" s="0"/>
+      <c r="ADC43" s="0"/>
+      <c r="ADD43" s="0"/>
+      <c r="ADE43" s="0"/>
+      <c r="ADF43" s="0"/>
+      <c r="ADG43" s="0"/>
+      <c r="ADH43" s="0"/>
+      <c r="ADI43" s="0"/>
+      <c r="ADJ43" s="0"/>
+      <c r="ADK43" s="0"/>
+      <c r="ADL43" s="0"/>
+      <c r="ADM43" s="0"/>
+      <c r="ADN43" s="0"/>
+      <c r="ADO43" s="0"/>
+      <c r="ADP43" s="0"/>
+      <c r="ADQ43" s="0"/>
+      <c r="ADR43" s="0"/>
+      <c r="ADS43" s="0"/>
+      <c r="ADT43" s="0"/>
+      <c r="ADU43" s="0"/>
+      <c r="ADV43" s="0"/>
+      <c r="ADW43" s="0"/>
+      <c r="ADX43" s="0"/>
+      <c r="ADY43" s="0"/>
+      <c r="ADZ43" s="0"/>
+      <c r="AEA43" s="0"/>
+      <c r="AEB43" s="0"/>
+      <c r="AEC43" s="0"/>
+      <c r="AED43" s="0"/>
+      <c r="AEE43" s="0"/>
+      <c r="AEF43" s="0"/>
+      <c r="AEG43" s="0"/>
+      <c r="AEH43" s="0"/>
+      <c r="AEI43" s="0"/>
+      <c r="AEJ43" s="0"/>
+      <c r="AEK43" s="0"/>
+      <c r="AEL43" s="0"/>
+      <c r="AEM43" s="0"/>
+      <c r="AEN43" s="0"/>
+      <c r="AEO43" s="0"/>
+      <c r="AEP43" s="0"/>
+      <c r="AEQ43" s="0"/>
+      <c r="AER43" s="0"/>
+      <c r="AES43" s="0"/>
+      <c r="AET43" s="0"/>
+      <c r="AEU43" s="0"/>
+      <c r="AEV43" s="0"/>
+      <c r="AEW43" s="0"/>
+      <c r="AEX43" s="0"/>
+      <c r="AEY43" s="0"/>
+      <c r="AEZ43" s="0"/>
+      <c r="AFA43" s="0"/>
+      <c r="AFB43" s="0"/>
+      <c r="AFC43" s="0"/>
+      <c r="AFD43" s="0"/>
+      <c r="AFE43" s="0"/>
+      <c r="AFF43" s="0"/>
+      <c r="AFG43" s="0"/>
+      <c r="AFH43" s="0"/>
+      <c r="AFI43" s="0"/>
+      <c r="AFJ43" s="0"/>
+      <c r="AFK43" s="0"/>
+      <c r="AFL43" s="0"/>
+      <c r="AFM43" s="0"/>
+      <c r="AFN43" s="0"/>
+      <c r="AFO43" s="0"/>
+      <c r="AFP43" s="0"/>
+      <c r="AFQ43" s="0"/>
+      <c r="AFR43" s="0"/>
+      <c r="AFS43" s="0"/>
+      <c r="AFT43" s="0"/>
+      <c r="AFU43" s="0"/>
+      <c r="AFV43" s="0"/>
+      <c r="AFW43" s="0"/>
+      <c r="AFX43" s="0"/>
+      <c r="AFY43" s="0"/>
+      <c r="AFZ43" s="0"/>
+      <c r="AGA43" s="0"/>
+      <c r="AGB43" s="0"/>
+      <c r="AGC43" s="0"/>
+      <c r="AGD43" s="0"/>
+      <c r="AGE43" s="0"/>
+      <c r="AGF43" s="0"/>
+      <c r="AGG43" s="0"/>
+      <c r="AGH43" s="0"/>
+      <c r="AGI43" s="0"/>
+      <c r="AGJ43" s="0"/>
+      <c r="AGK43" s="0"/>
+      <c r="AGL43" s="0"/>
+      <c r="AGM43" s="0"/>
+      <c r="AGN43" s="0"/>
+      <c r="AGO43" s="0"/>
+      <c r="AGP43" s="0"/>
+      <c r="AGQ43" s="0"/>
+      <c r="AGR43" s="0"/>
+      <c r="AGS43" s="0"/>
+      <c r="AGT43" s="0"/>
+      <c r="AGU43" s="0"/>
+      <c r="AGV43" s="0"/>
+      <c r="AGW43" s="0"/>
+      <c r="AGX43" s="0"/>
+      <c r="AGY43" s="0"/>
+      <c r="AGZ43" s="0"/>
+      <c r="AHA43" s="0"/>
+      <c r="AHB43" s="0"/>
+      <c r="AHC43" s="0"/>
+      <c r="AHD43" s="0"/>
+      <c r="AHE43" s="0"/>
+      <c r="AHF43" s="0"/>
+      <c r="AHG43" s="0"/>
+      <c r="AHH43" s="0"/>
+      <c r="AHI43" s="0"/>
+      <c r="AHJ43" s="0"/>
+      <c r="AHK43" s="0"/>
+      <c r="AHL43" s="0"/>
+      <c r="AHM43" s="0"/>
+      <c r="AHN43" s="0"/>
+      <c r="AHO43" s="0"/>
+      <c r="AHP43" s="0"/>
+      <c r="AHQ43" s="0"/>
+      <c r="AHR43" s="0"/>
+      <c r="AHS43" s="0"/>
+      <c r="AHT43" s="0"/>
+      <c r="AHU43" s="0"/>
+      <c r="AHV43" s="0"/>
+      <c r="AHW43" s="0"/>
+      <c r="AHX43" s="0"/>
+      <c r="AHY43" s="0"/>
+      <c r="AHZ43" s="0"/>
+      <c r="AIA43" s="0"/>
+      <c r="AIB43" s="0"/>
+      <c r="AIC43" s="0"/>
+      <c r="AID43" s="0"/>
+      <c r="AIE43" s="0"/>
+      <c r="AIF43" s="0"/>
+      <c r="AIG43" s="0"/>
+      <c r="AIH43" s="0"/>
+      <c r="AII43" s="0"/>
+      <c r="AIJ43" s="0"/>
+      <c r="AIK43" s="0"/>
+      <c r="AIL43" s="0"/>
+      <c r="AIM43" s="0"/>
+      <c r="AIN43" s="0"/>
+      <c r="AIO43" s="0"/>
+      <c r="AIP43" s="0"/>
+      <c r="AIQ43" s="0"/>
+      <c r="AIR43" s="0"/>
+      <c r="AIS43" s="0"/>
+      <c r="AIT43" s="0"/>
+      <c r="AIU43" s="0"/>
+      <c r="AIV43" s="0"/>
+      <c r="AIW43" s="0"/>
+      <c r="AIX43" s="0"/>
+      <c r="AIY43" s="0"/>
+      <c r="AIZ43" s="0"/>
+      <c r="AJA43" s="0"/>
+      <c r="AJB43" s="0"/>
+      <c r="AJC43" s="0"/>
+      <c r="AJD43" s="0"/>
+      <c r="AJE43" s="0"/>
+      <c r="AJF43" s="0"/>
+      <c r="AJG43" s="0"/>
+      <c r="AJH43" s="0"/>
+      <c r="AJI43" s="0"/>
+      <c r="AJJ43" s="0"/>
+      <c r="AJK43" s="0"/>
+      <c r="AJL43" s="0"/>
+      <c r="AJM43" s="0"/>
+      <c r="AJN43" s="0"/>
+      <c r="AJO43" s="0"/>
+      <c r="AJP43" s="0"/>
+      <c r="AJQ43" s="0"/>
+      <c r="AJR43" s="0"/>
+      <c r="AJS43" s="0"/>
+      <c r="AJT43" s="0"/>
+      <c r="AJU43" s="0"/>
+      <c r="AJV43" s="0"/>
+      <c r="AJW43" s="0"/>
+      <c r="AJX43" s="0"/>
+      <c r="AJY43" s="0"/>
+      <c r="AJZ43" s="0"/>
+      <c r="AKA43" s="0"/>
+      <c r="AKB43" s="0"/>
+      <c r="AKC43" s="0"/>
+      <c r="AKD43" s="0"/>
+      <c r="AKE43" s="0"/>
+      <c r="AKF43" s="0"/>
+      <c r="AKG43" s="0"/>
+      <c r="AKH43" s="0"/>
+      <c r="AKI43" s="0"/>
+      <c r="AKJ43" s="0"/>
+      <c r="AKK43" s="0"/>
+      <c r="AKL43" s="0"/>
+      <c r="AKM43" s="0"/>
+      <c r="AKN43" s="0"/>
+      <c r="AKO43" s="0"/>
+      <c r="AKP43" s="0"/>
+      <c r="AKQ43" s="0"/>
+      <c r="AKR43" s="0"/>
+      <c r="AKS43" s="0"/>
+      <c r="AKT43" s="0"/>
+      <c r="AKU43" s="0"/>
+      <c r="AKV43" s="0"/>
+      <c r="AKW43" s="0"/>
+      <c r="AKX43" s="0"/>
+      <c r="AKY43" s="0"/>
+      <c r="AKZ43" s="0"/>
+      <c r="ALA43" s="0"/>
+      <c r="ALB43" s="0"/>
+      <c r="ALC43" s="0"/>
+      <c r="ALD43" s="0"/>
+      <c r="ALE43" s="0"/>
+      <c r="ALF43" s="0"/>
+      <c r="ALG43" s="0"/>
+      <c r="ALH43" s="0"/>
+      <c r="ALI43" s="0"/>
+      <c r="ALJ43" s="0"/>
+      <c r="ALK43" s="0"/>
+      <c r="ALL43" s="0"/>
+      <c r="ALM43" s="0"/>
+      <c r="ALN43" s="0"/>
+      <c r="ALO43" s="0"/>
+      <c r="ALP43" s="0"/>
+      <c r="ALQ43" s="0"/>
+      <c r="ALR43" s="0"/>
+      <c r="ALS43" s="0"/>
+      <c r="ALT43" s="0"/>
+      <c r="ALU43" s="0"/>
+      <c r="ALV43" s="0"/>
+      <c r="ALW43" s="0"/>
+      <c r="ALX43" s="0"/>
+      <c r="ALY43" s="0"/>
+      <c r="ALZ43" s="0"/>
+      <c r="AMA43" s="0"/>
+      <c r="AMB43" s="0"/>
+      <c r="AMC43" s="0"/>
+      <c r="AMD43" s="0"/>
+      <c r="AME43" s="0"/>
+      <c r="AMF43" s="0"/>
+      <c r="AMG43" s="0"/>
+      <c r="AMH43" s="0"/>
+      <c r="AMI43" s="0"/>
+      <c r="AMJ43" s="0"/>
+    </row>
     <row r="44" s="7" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="6" t="s">
         <v>82</v>
@@ -44056,46 +45079,58 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="3" t="s">
-        <v>86</v>
+        <v>20</v>
       </c>
       <c r="B50" s="0"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B51" s="0"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B52" s="0"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>87</v>
-      </c>
+      <c r="B53" s="0"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>88</v>
-      </c>
+      <c r="B54" s="0"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="3" t="s">
-        <v>89</v>
+        <v>25</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="3" t="s">
-        <v>90</v>
+        <v>26</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
